--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,6 +434,9 @@
           <t>world!</t>
         </is>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>44969.86717090455</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
